--- a/paper/Table1.xlsx
+++ b/paper/Table1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="100" windowWidth="16520" windowHeight="12380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>title_en_long</t>
   </si>
@@ -392,12 +392,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -746,31 +750,32 @@
       <c r="A3" s="1">
         <v>1931</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1934</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>54510</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -778,31 +783,32 @@
       <c r="A4" s="1">
         <v>1932</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1992</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>72411</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -810,31 +816,32 @@
       <c r="A5" s="1">
         <v>1935</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1938</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>1947</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>58560</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>64597</v>
       </c>
     </row>
@@ -842,31 +849,32 @@
       <c r="A6" s="1">
         <v>1941</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1953</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>1968</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>84132</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>89746</v>
       </c>
     </row>
@@ -874,31 +882,32 @@
       <c r="A7" s="1">
         <v>1947</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1955</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1951</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>94122</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>82554</v>
       </c>
     </row>
@@ -906,31 +915,32 @@
       <c r="A8" s="1">
         <v>1948</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1956</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>1951</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>49750</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>52313</v>
       </c>
     </row>
@@ -938,31 +948,32 @@
       <c r="A9" s="1">
         <v>1949</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1958</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>1953</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>60178</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>63055</v>
       </c>
     </row>
@@ -970,34 +981,34 @@
       <c r="A10" s="1">
         <v>1946</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1954</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>1955</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>8867</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>9252</v>
       </c>
     </row>
@@ -1005,34 +1016,34 @@
       <c r="A11" s="1">
         <v>1946</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1962</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>1946</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>5691</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>5996</v>
       </c>
     </row>
@@ -1040,34 +1051,32 @@
       <c r="A12" s="1">
         <v>1946</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>1973</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>1970</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>8391</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>9456</v>
       </c>
     </row>
@@ -1075,34 +1084,34 @@
       <c r="A13" s="1">
         <v>1946</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1967</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1955</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>6534</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>7033</v>
       </c>
     </row>
@@ -1110,31 +1119,32 @@
       <c r="A14" s="1">
         <v>1958</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1964</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>1961</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>37028</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>38022</v>
       </c>
     </row>
@@ -1142,31 +1152,32 @@
       <c r="A15" s="1">
         <v>1946</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1974</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>1970</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>28424</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>36008</v>
       </c>
     </row>
@@ -1174,31 +1185,32 @@
       <c r="A16" s="1">
         <v>1976</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>1980</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>1980</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>9574</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>10643</v>
       </c>
     </row>
@@ -1206,31 +1218,32 @@
       <c r="A17" s="1">
         <v>1981</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1985</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>1985</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>298</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>339</v>
       </c>
     </row>
@@ -1238,31 +1251,32 @@
       <c r="A18" s="1">
         <v>1980</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1981</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>1981</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>7860</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>8533</v>
       </c>
     </row>
@@ -1270,31 +1284,32 @@
       <c r="A19" s="1">
         <v>1981</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>1981</v>
       </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>282</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1302,31 +1317,32 @@
       <c r="A20" s="1">
         <v>1981</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>1983</v>
       </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>4501</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1334,31 +1350,32 @@
       <c r="A21" s="1">
         <v>1983</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>1989</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>1989</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>1915</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>1995</v>
       </c>
     </row>
@@ -1366,31 +1383,32 @@
       <c r="A22" s="1">
         <v>1951</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1967</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>1955</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>17496</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>17866</v>
       </c>
     </row>
@@ -1398,31 +1416,32 @@
       <c r="A23" s="1">
         <v>1955</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>1956</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>1967</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>3762</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>4111</v>
       </c>
     </row>
@@ -1430,31 +1449,32 @@
       <c r="A24" s="1">
         <v>1965</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1965</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>1965</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>1106</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>1196</v>
       </c>
     </row>
@@ -1462,31 +1482,32 @@
       <c r="A25" s="1">
         <v>1965</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1967</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>1966</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>2283</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>2420</v>
       </c>
     </row>
@@ -1494,31 +1515,32 @@
       <c r="A26" s="1">
         <v>1970</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1972</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>1970</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>8268</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>8717</v>
       </c>
     </row>
@@ -1526,31 +1548,32 @@
       <c r="A27" s="1">
         <v>1966</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>1967</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>1966</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="3">
         <v>959</v>
       </c>
     </row>
@@ -1558,66 +1581,67 @@
       <c r="A28" s="1">
         <v>1969</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1970</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>1969</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="3">
         <v>1489</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>1960</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>1976</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>1973</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>5566</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>5808</v>
       </c>
     </row>
